--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R8d988910e1bb4756"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R55e747bb7e5444a8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R55e747bb7e5444a8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R9a034d42f8114ea4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R9a034d42f8114ea4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R5b522a2cb95a4e1f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R5b522a2cb95a4e1f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Rb72142a309ff43e1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Rb72142a309ff43e1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R3fd913dce6bd4dfd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R3fd913dce6bd4dfd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Rd24fd41bd4db451b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Rd24fd41bd4db451b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R6ff6da5e525d455a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R6ff6da5e525d455a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Ra2c1f286d06541a1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Ra2c1f286d06541a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Rfd87ec39b21345b1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/111_SimpleCalibrationWorkbook_1.1.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="Rfd87ec39b21345b1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration Sheet" sheetId="1" r:id="R56027a26f4f845b4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
